--- a/biology/Médecine/Manju_Ray/Manju_Ray.xlsx
+++ b/biology/Médecine/Manju_Ray/Manju_Ray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manju Ray, née le 1er janvier 1947, est une biochimiste indienne spécialisée en enzymologie moléculaire et biochimie du cancer[1]. Elle est connue pour son travail dans le développement de médicaments anticancéreux et la compréhension de procédés de différenciation des cellules moléculaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manju Ray, née le 1er janvier 1947, est une biochimiste indienne spécialisée en enzymologie moléculaire et biochimie du cancer. Elle est connue pour son travail dans le développement de médicaments anticancéreux et la compréhension de procédés de différenciation des cellules moléculaires.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ray obtient son master en physiologie en 1969 et son doctorat en biochimie en 1975 à l'Université de Calcutta[2]. Elle commence sa carrière au département de biochimie de l'Association indienne de culture des sciences (IACS) où elle devient professeure [1]. Elle est scientifique émérite au Bose Institute du Conseil de la recherche scientifique et industrielle (CSIR)[3]. Ses travaux de recherche menés durant une grande partie de sa carrière en collaboration avec une équipe de scientifiques et docteurs au Jadavpur, le département de biochimie de l'IACS, mènent au développement réussi d'un médicament pour le traitement du cancer[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ray obtient son master en physiologie en 1969 et son doctorat en biochimie en 1975 à l'Université de Calcutta. Elle commence sa carrière au département de biochimie de l'Association indienne de culture des sciences (IACS) où elle devient professeure . Elle est scientifique émérite au Bose Institute du Conseil de la recherche scientifique et industrielle (CSIR). Ses travaux de recherche menés durant une grande partie de sa carrière en collaboration avec une équipe de scientifiques et docteurs au Jadavpur, le département de biochimie de l'IACS, mènent au développement réussi d'un médicament pour le traitement du cancer.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Médaille du Jeune Scientifique de l'Académie Nationale des Sciences de l'Inde (INSA) [5] en Sciences Biologiques en 1975
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médaille du Jeune Scientifique de l'Académie Nationale des Sciences de l'Inde (INSA)  en Sciences Biologiques en 1975
 Prix Shanti Swarup Bhatnagar pour la science et la technologie en science biologiques en 1989
 Prix de Dr I.C. Mémorial de Chopra
-Prix Dr Mémorial de Jnan Chandra Ghosh [6]</t>
+Prix Dr Mémorial de Jnan Chandra Ghosh </t>
         </is>
       </c>
     </row>
@@ -575,13 +591,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Inhibition of respiration of tumor cells by methyl glyoxal and protection of inhibition by lactaldehyde, 1991, International Journal of Cancer[7]
-Inhibition of electron flow through complex I of the mitochondrial respiratory chain on Earlich Ascites Carsinoma cells by methyl Glyoxal, 1994, Biochemical Journal[8]
-Glyoxalase III from Escherichia coli a single novel enzyme for the conversion of methylglyoxal into D-lactate without reduced glutathione, 1995, Biochemical Journal[9]
-Methylglyoxal : From a putative intermediate of glucose breakdown to its role in understanding that excessive ATP formation in cells may lead to malignancy, 1998, Current Science[10]
-Glyceraldehyde-3-phosphate dehydrogenase from Earlich Ascites Carcinoma cells: its possible role in the high glycolysis of malignant cells, 1999, European Journal of Biochemistry[11]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Inhibition of respiration of tumor cells by methyl glyoxal and protection of inhibition by lactaldehyde, 1991, International Journal of Cancer
+Inhibition of electron flow through complex I of the mitochondrial respiratory chain on Earlich Ascites Carsinoma cells by methyl Glyoxal, 1994, Biochemical Journal
+Glyoxalase III from Escherichia coli a single novel enzyme for the conversion of methylglyoxal into D-lactate without reduced glutathione, 1995, Biochemical Journal
+Methylglyoxal : From a putative intermediate of glucose breakdown to its role in understanding that excessive ATP formation in cells may lead to malignancy, 1998, Current Science
+Glyceraldehyde-3-phosphate dehydrogenase from Earlich Ascites Carcinoma cells: its possible role in the high glycolysis of malignant cells, 1999, European Journal of Biochemistry</t>
         </is>
       </c>
     </row>
